--- a/DCR Sample21_1.xlsx
+++ b/DCR Sample21_1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\NR5VFL01\volHSBC_HEB_User2$\jerry.ling\Desktop\HCT\Robot\Shared_Folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Shared_Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Cheque Bank Code</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Currency</t>
-  </si>
-  <si>
-    <t>HKD</t>
   </si>
   <si>
     <t>Reference</t>
@@ -421,7 +418,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,10 +438,10 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -456,13 +453,13 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
         <v>15</v>
@@ -500,13 +497,10 @@
         <v>1342448</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
       <c r="K2" t="s">
         <v>6</v>
       </c>
@@ -521,7 +515,7 @@
         <v>12</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
